--- a/docs/MTF-MH variables.xlsx
+++ b/docs/MTF-MH variables.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanna\Documents\GitHub\MTF_Mental-Health\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7638B6F-E1DA-4D5F-82C1-C11F0E854E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD1738-A7A5-4419-9F5E-CA18D3B11530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7048CD49-258E-45CE-8B63-234B43E208AB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7048CD49-258E-45CE-8B63-234B43E208AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="WFE" sheetId="1" r:id="rId1"/>
-    <sheet name="MH" sheetId="2" r:id="rId2"/>
+    <sheet name="Codebook" sheetId="3" r:id="rId1"/>
+    <sheet name="WFE" sheetId="1" r:id="rId2"/>
+    <sheet name="MH" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
   <si>
     <t>WORK</t>
   </si>
@@ -223,17 +224,370 @@
   </si>
   <si>
     <t>OFTN FEEL LONELY</t>
+  </si>
+  <si>
+    <t>Subject Area</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>BY 
+Form</t>
+  </si>
+  <si>
+    <t>BY 
+Start Year</t>
+  </si>
+  <si>
+    <t>BY 
+Latest Year</t>
+  </si>
+  <si>
+    <t>FU 
+Form</t>
+  </si>
+  <si>
+    <t>FU 
+Start Year</t>
+  </si>
+  <si>
+    <t>FU 
+Latest Year</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>FU1</t>
+  </si>
+  <si>
+    <t>FU2</t>
+  </si>
+  <si>
+    <t>FU3</t>
+  </si>
+  <si>
+    <t>FU4</t>
+  </si>
+  <si>
+    <t>FU5</t>
+  </si>
+  <si>
+    <t>FU6</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Responses</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>V928</t>
+  </si>
+  <si>
+    <t>V11356</t>
+  </si>
+  <si>
+    <t>V12356</t>
+  </si>
+  <si>
+    <t>V13356</t>
+  </si>
+  <si>
+    <t>V14356</t>
+  </si>
+  <si>
+    <t>V15356</t>
+  </si>
+  <si>
+    <t>V16356</t>
+  </si>
+  <si>
+    <t>Taking all things together, how would you say things are these days—would you say youre very happy, pretty happy, or not too happy these days?</t>
+  </si>
+  <si>
+    <t>3="Very happy" 
+2="Pretty happy" 
+1="Not too happy"</t>
+  </si>
+  <si>
+    <t>V501</t>
+  </si>
+  <si>
+    <t>V1501</t>
+  </si>
+  <si>
+    <t>V2501</t>
+  </si>
+  <si>
+    <t>V3501</t>
+  </si>
+  <si>
+    <t>V4501</t>
+  </si>
+  <si>
+    <t>V5501</t>
+  </si>
+  <si>
+    <t>V6501</t>
+  </si>
+  <si>
+    <t>SAT LIFE AS WHLE</t>
+  </si>
+  <si>
+    <t>V947</t>
+  </si>
+  <si>
+    <t>V11375</t>
+  </si>
+  <si>
+    <t>V12375</t>
+  </si>
+  <si>
+    <t>V13375</t>
+  </si>
+  <si>
+    <t>V14375</t>
+  </si>
+  <si>
+    <t>V15375</t>
+  </si>
+  <si>
+    <t>V16375</t>
+  </si>
+  <si>
+    <t>The next questions ask how satisfied or dissatisfied you are with several aspects of your life. Your life as a whole these days?</t>
+  </si>
+  <si>
+    <t>7="Completely Satisfied" 
+4="Neutral" 
+1="Completely Dissatisfied"</t>
+  </si>
+  <si>
+    <t>V701</t>
+  </si>
+  <si>
+    <t>V1701</t>
+  </si>
+  <si>
+    <t>V2701</t>
+  </si>
+  <si>
+    <t>V3701</t>
+  </si>
+  <si>
+    <t>V4701</t>
+  </si>
+  <si>
+    <t>V5701</t>
+  </si>
+  <si>
+    <t>V6701</t>
+  </si>
+  <si>
+    <t>How satisfied are you with your life as a whole these days?</t>
+  </si>
+  <si>
+    <t>1="Completely dissatisfied" 
+2="Quite dissatisfied" 
+3="Somewhat dissatisfied" 
+4="Neither, or mixed feelings"
+5="Somewhat satisfied" 
+6="Quite satisfied" 
+7="Completely satisfied"</t>
+  </si>
+  <si>
+    <t>V872</t>
+  </si>
+  <si>
+    <t>V1741</t>
+  </si>
+  <si>
+    <t>V2741</t>
+  </si>
+  <si>
+    <t>V3741</t>
+  </si>
+  <si>
+    <t>V4741</t>
+  </si>
+  <si>
+    <t>V5741</t>
+  </si>
+  <si>
+    <t>V6741</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with each of the following statements? On the whole, Im satisfied with myself</t>
+  </si>
+  <si>
+    <t>1="Disagree" 
+2="Mostly Disagree" 
+3="Neither" 
+4="Mostly Agree" 
+5="Agree"</t>
+  </si>
+  <si>
+    <t>V708</t>
+  </si>
+  <si>
+    <t>V1708</t>
+  </si>
+  <si>
+    <t>V2708</t>
+  </si>
+  <si>
+    <t>V3708</t>
+  </si>
+  <si>
+    <t>V4708</t>
+  </si>
+  <si>
+    <t>V5708</t>
+  </si>
+  <si>
+    <t>V6708</t>
+  </si>
+  <si>
+    <t>V713</t>
+  </si>
+  <si>
+    <t>V1713</t>
+  </si>
+  <si>
+    <t>V2713</t>
+  </si>
+  <si>
+    <t>V3713</t>
+  </si>
+  <si>
+    <t>V4713</t>
+  </si>
+  <si>
+    <t>V5713</t>
+  </si>
+  <si>
+    <t>V6713</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with each of the following statements? On the whole, Im  satisfied with myself</t>
+  </si>
+  <si>
+    <t>V702</t>
+  </si>
+  <si>
+    <t>V1702</t>
+  </si>
+  <si>
+    <t>V2702</t>
+  </si>
+  <si>
+    <t>V3702</t>
+  </si>
+  <si>
+    <t>V4702</t>
+  </si>
+  <si>
+    <t>V5702</t>
+  </si>
+  <si>
+    <t>V6702</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with each of the following? Life often seems meaningless</t>
+  </si>
+  <si>
+    <t>V706</t>
+  </si>
+  <si>
+    <t>V1706</t>
+  </si>
+  <si>
+    <t>V2706</t>
+  </si>
+  <si>
+    <t>V3706</t>
+  </si>
+  <si>
+    <t>V4706</t>
+  </si>
+  <si>
+    <t>V5706</t>
+  </si>
+  <si>
+    <t>V6706</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with each of the following? I enjoy life as much as anyone</t>
+  </si>
+  <si>
+    <t>V710</t>
+  </si>
+  <si>
+    <t>V1710</t>
+  </si>
+  <si>
+    <t>V2710</t>
+  </si>
+  <si>
+    <t>V3710</t>
+  </si>
+  <si>
+    <t>V4710</t>
+  </si>
+  <si>
+    <t>V5710</t>
+  </si>
+  <si>
+    <t>V6710</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with each of the following? The future often seems hopeless</t>
+  </si>
+  <si>
+    <t>V715</t>
+  </si>
+  <si>
+    <t>V1715</t>
+  </si>
+  <si>
+    <t>V2715</t>
+  </si>
+  <si>
+    <t>V3715</t>
+  </si>
+  <si>
+    <t>V4715</t>
+  </si>
+  <si>
+    <t>V5715</t>
+  </si>
+  <si>
+    <t>V6715</t>
+  </si>
+  <si>
+    <t>How much do you agree or disagree with each of the following? It feels good to be alive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -241,11 +595,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -264,13 +613,57 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18BC9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -294,17 +687,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,9 +767,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Flatly">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Flatly">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,39 +777,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="2C3E50"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="18BC9C"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="F39C12"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="E74C3C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="3498DB"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="18BC9C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="217BB9"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="8A65CD"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -374,7 +818,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -417,16 +861,16 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="游明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -528,6 +972,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -536,13 +987,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -607,56 +1051,900 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Flatly" id="{99E79B0A-264E-4160-8849-02347183147B}" vid="{DBD124DC-4DAC-4AFC-A48A-0B623C4FC034}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71850144-E897-4957-8595-F2DD3E3B0E30}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="41.140625" customWidth="1"/>
+    <col min="19" max="19" width="45.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1190</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1976</v>
+      </c>
+      <c r="F2" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1976</v>
+      </c>
+      <c r="I2" s="17">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1190</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1976</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1976</v>
+      </c>
+      <c r="I3" s="21">
+        <v>2019</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1190</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1976</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1976</v>
+      </c>
+      <c r="I4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1190</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="21">
+        <v>4</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1976</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1976</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2019</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1190</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="17">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1976</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G6" s="17">
+        <v>5</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1976</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2019</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1380</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1975</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>1976</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2019</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6840</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1976</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G8" s="17">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1976</v>
+      </c>
+      <c r="I8" s="17">
+        <v>2019</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="23">
+        <v>12620</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1984</v>
+      </c>
+      <c r="I9" s="21">
+        <v>2019</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="22">
+        <v>12620</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1975</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1976</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2019</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="23">
+        <v>12620</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="21">
+        <v>6</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1989</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G11" s="21">
+        <v>6</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1990</v>
+      </c>
+      <c r="I11" s="21">
+        <v>2019</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="22">
+        <v>23700</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="17">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1989</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G12" s="17">
+        <v>6</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1990</v>
+      </c>
+      <c r="I12" s="17">
+        <v>2019</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="23">
+        <v>23710</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="21">
+        <v>6</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1989</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="21">
+        <v>6</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1990</v>
+      </c>
+      <c r="I13" s="21">
+        <v>2019</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="22">
+        <v>23720</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="17">
+        <v>6</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1989</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="17">
+        <v>6</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1990</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2019</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="23">
+        <v>23730</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1989</v>
+      </c>
+      <c r="F15" s="21">
+        <v>2019</v>
+      </c>
+      <c r="G15" s="21">
+        <v>6</v>
+      </c>
+      <c r="H15" s="21">
+        <v>1990</v>
+      </c>
+      <c r="I15" s="21">
+        <v>2019</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863EC8C3-D9E4-4026-B546-84C6C0C9CE4A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A6" sqref="A6:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,131 +1964,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="24"/>
+      <c r="E8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="24"/>
+      <c r="E9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -808,7 +2099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF08F75-1100-406E-99DB-59514A290A6D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -816,13 +2107,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="29.44140625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="3" width="29.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -833,81 +2124,81 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
     </row>
